--- a/biology/Botanique/Kütz/Kütz..xlsx
+++ b/biology/Botanique/Kütz/Kütz..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>K%C3%BCtz.</t>
+          <t>Kütz.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Friedrich Traugott Kützing est un botaniste prussien spécialiste des algues, né le 8 décembre 1807 à Ritteburg et mort le 9 septembre 1892 à Nordhausen.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>K%C3%BCtz.</t>
+          <t>Kütz.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir travaillé comme pharmacien, Friedrich Traugott Kützing étudie les sciences naturelles, à Halle, en Allemagne. En 1838, il fait un voyage pour étudier la botanique sur le littoral allemand, en Dalmatie, en Italie et dans les Alpes. Il devient enseignant de sciences naturelles à l’école royale de Nordhausen. En 1843, il est nommé professeur, fonction qu’il occupe jusqu’à son départ à la retraite en 1883.
 Ses recherches sur les algues sont d’une grande importance. Son ouvrage, Spécies algarum, qui paraît à Leipzig en 1849, décrit toutes les algues connues à son époque. Il est un défenseur de la génération spontanée et luttait contre l’hypothèse de la stabilité des espèces.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>K%C3%BCtz.</t>
+          <t>Kütz.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Synopsis Diatomearum. Halle. 1833
 Tabulae phycologicae. Nordh. 1845-1870, vingt volumes, 2 000 planches colorées.
